--- a/biology/Botanique/Pterula/Pterula.xlsx
+++ b/biology/Botanique/Pterula/Pterula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pterula est un genre de champignons basidiomycetes de la famille des Pterulaceae du clade III Hygrophoroïde (ordre des Agaricales).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon MycoBank                                            (23 janvier 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon MycoBank                                            (23 janvier 2023) :
 Pterula abietis Lloyd, 1925
 Pterula aciculiformis Lloyd, 1919
 Pterula actinaeformis (Berk.) Lloyd, 1919
@@ -681,10 +695,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Pterula Fr., 1825[1],[2].
-Pterula a pour synonyme[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Pterula Fr., 1825,.
+Pterula a pour synonyme :
 Pteridium Clem., 1902</t>
         </is>
       </c>
@@ -713,7 +729,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>E.M. Fries, Systema Orbis Vegetabilis, vol. 1, 1825 (lire en ligne), p. 1-374</t>
         </is>
